--- a/po_analysis_by_asin/B09T39WL99_po_data.xlsx
+++ b/po_analysis_by_asin/B09T39WL99_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,73 +500,17 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45088.99999999999</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45095.99999999999</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45102.99999999999</v>
-      </c>
-      <c r="B10" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45116.99999999999</v>
-      </c>
-      <c r="B11" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45123.99999999999</v>
-      </c>
-      <c r="B12" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45130.99999999999</v>
-      </c>
-      <c r="B13" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45137.99999999999</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45144.99999999999</v>
-      </c>
-      <c r="B15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45151.99999999999</v>
-      </c>
-      <c r="B16" t="n">
         <v>6</v>
       </c>
     </row>
@@ -581,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,25 +571,9 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45107.99999999999</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45138.99999999999</v>
-      </c>
-      <c r="B6" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45169.99999999999</v>
-      </c>
-      <c r="B7" t="n">
         <v>12</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09T39WL99_po_data.xlsx
+++ b/po_analysis_by_asin/B09T39WL99_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -541,7 +542,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -575,6 +576,271 @@
       </c>
       <c r="B5" t="n">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.918481137685623</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.57186263128267</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.360041165015196</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.91997128414836</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.633927869753209</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.41755755339269</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.493767120341037</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.72859397382515</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.098561918321864</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.43629589201068</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.033186942149498</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.3320153700349</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.674128886466983</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.918718997156779</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.356949808334104</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.615860772880975</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.306775158280113</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9.689551792101224</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.561931264353853</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.803118911705949</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.278115073580005</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.595959166032456</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.322773931063194</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.588497216015824</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.061838374211193</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9.766940665463759</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.189974884151522</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.604577532380707</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.973741688550744</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9.550023524437442</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.083662023533822</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.105711609681569</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09T39WL99_po_data.xlsx
+++ b/po_analysis_by_asin/B09T39WL99_po_data.xlsx
@@ -589,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,16 +608,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -626,12 +616,6 @@
       <c r="B2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.918481137685623</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.57186263128267</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -640,12 +624,6 @@
       <c r="B3" t="n">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.360041165015196</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.91997128414836</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -654,12 +632,6 @@
       <c r="B4" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.633927869753209</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.41755755339269</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -668,12 +640,6 @@
       <c r="B5" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.493767120341037</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.72859397382515</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -682,12 +648,6 @@
       <c r="B6" t="n">
         <v>7</v>
       </c>
-      <c r="C6" t="n">
-        <v>4.098561918321864</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.43629589201068</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -696,12 +656,6 @@
       <c r="B7" t="n">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
-        <v>4.033186942149498</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.3320153700349</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -710,12 +664,6 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.674128886466983</v>
-      </c>
-      <c r="D8" t="n">
-        <v>9.918718997156779</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -724,12 +672,6 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>3.356949808334104</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9.615860772880975</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -738,12 +680,6 @@
       <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
-        <v>3.306775158280113</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.689551792101224</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -752,12 +688,6 @@
       <c r="B11" t="n">
         <v>7</v>
       </c>
-      <c r="C11" t="n">
-        <v>3.561931264353853</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9.803118911705949</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -766,12 +696,6 @@
       <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
-        <v>3.278115073580005</v>
-      </c>
-      <c r="D12" t="n">
-        <v>9.595959166032456</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -780,12 +704,6 @@
       <c r="B13" t="n">
         <v>6</v>
       </c>
-      <c r="C13" t="n">
-        <v>3.322773931063194</v>
-      </c>
-      <c r="D13" t="n">
-        <v>9.588497216015824</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -794,12 +712,6 @@
       <c r="B14" t="n">
         <v>6</v>
       </c>
-      <c r="C14" t="n">
-        <v>3.061838374211193</v>
-      </c>
-      <c r="D14" t="n">
-        <v>9.766940665463759</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -808,12 +720,6 @@
       <c r="B15" t="n">
         <v>6</v>
       </c>
-      <c r="C15" t="n">
-        <v>3.189974884151522</v>
-      </c>
-      <c r="D15" t="n">
-        <v>9.604577532380707</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -822,12 +728,6 @@
       <c r="B16" t="n">
         <v>6</v>
       </c>
-      <c r="C16" t="n">
-        <v>2.973741688550744</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9.550023524437442</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -835,12 +735,6 @@
       </c>
       <c r="B17" t="n">
         <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.083662023533822</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.105711609681569</v>
       </c>
     </row>
   </sheetData>
